--- a/テスト仕様書/テスト仕様書_ログイン画面.xlsx
+++ b/テスト仕様書/テスト仕様書_ログイン画面.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
   <si>
     <t>小項目</t>
     <rPh sb="0" eb="3">
@@ -736,19 +736,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>図書カード番号が入力されている</t>
-    <rPh sb="0" eb="2">
-      <t>トショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>図書カード番号：[未入力]</t>
     <rPh sb="9" eb="12">
       <t>ミニュウリョク</t>
@@ -1002,6 +989,22 @@
   </si>
   <si>
     <t>図書カード番号：1234567890</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行っている処理がNo.23と同じなため省略</t>
+    <rPh sb="0" eb="1">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウリャク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1032,7 +1035,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1069,6 +1072,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="42">
     <border>
@@ -1619,7 +1628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1776,6 +1785,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2084,8 +2105,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2374,7 +2395,7 @@
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>39</v>
@@ -2398,7 +2419,7 @@
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>38</v>
@@ -2422,7 +2443,7 @@
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>38</v>
@@ -2446,7 +2467,7 @@
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>38</v>
@@ -2470,7 +2491,7 @@
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>38</v>
@@ -2494,7 +2515,7 @@
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>38</v>
@@ -2518,7 +2539,7 @@
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>38</v>
@@ -2542,7 +2563,7 @@
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>38</v>
@@ -2566,7 +2587,7 @@
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>38</v>
@@ -2590,7 +2611,7 @@
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>38</v>
@@ -2614,7 +2635,7 @@
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>38</v>
@@ -2638,7 +2659,7 @@
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>58</v>
@@ -2686,7 +2707,7 @@
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>58</v>
@@ -2718,15 +2739,13 @@
       <c r="D27" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>83</v>
+      <c r="E27" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2745,15 +2764,15 @@
       <c r="E28" s="19"/>
       <c r="F28" s="36"/>
       <c r="G28" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="29" t="s">
         <v>81</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>19</v>
@@ -2762,20 +2781,20 @@
         <v>76</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="36"/>
       <c r="G29" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>19</v>
@@ -2784,20 +2803,20 @@
         <v>76</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="36"/>
       <c r="G30" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>19</v>
@@ -2806,20 +2825,20 @@
         <v>76</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="36"/>
       <c r="G31" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>19</v>
@@ -2828,20 +2847,20 @@
         <v>76</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="36"/>
       <c r="G32" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>19</v>
@@ -2866,8 +2885,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21">
-        <v>27</v>
+      <c r="A34" s="23">
+        <v>31</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>19</v>
@@ -2893,7 +2912,7 @@
     </row>
     <row r="35" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>19</v>
@@ -2918,8 +2937,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21">
-        <v>29</v>
+      <c r="A36" s="23">
+        <v>33</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>19</v>

--- a/テスト仕様書/テスト仕様書_ログイン画面.xlsx
+++ b/テスト仕様書/テスト仕様書_ログイン画面.xlsx
@@ -256,25 +256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員ID、社員名のどちらも正常な値で入力されているとき。</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シャインメイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブレークポイントを設定し実行した後,式ビューから
 発生させたい場所にエクセプションを発生させる式を記述する</t>
     <rPh sb="9" eb="11">
@@ -400,13 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>予期しないエラー：IOException</t>
-    <rPh sb="0" eb="2">
-      <t>ヨキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>例外処理：IOException</t>
     <rPh sb="0" eb="4">
       <t>レイガイショリ</t>
@@ -524,14 +498,6 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面メッセージ：スタックトレースが表示されていること
-画面遷移:利用者情報入力画面へ遷移</t>
-    <rPh sb="42" eb="44">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1004,6 +970,49 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図書カード番号が正常な値で入力されているとき。</t>
+    <rPh sb="0" eb="2">
+      <t>トショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予期しないエラー：IOException</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラ-ポップアップが出ること。
+ポップアップに[システムエラーが発生しました。係員にお知らせください]と表示されること</t>
+    <rPh sb="10" eb="11">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カカリイン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1762,6 +1771,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1785,18 +1806,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2105,8 +2114,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2123,25 +2132,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2172,20 +2181,20 @@
         <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="40"/>
       <c r="F3" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2196,20 +2205,20 @@
         <v>5</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2220,20 +2229,20 @@
         <v>5</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2244,20 +2253,20 @@
         <v>11</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2268,20 +2277,20 @@
         <v>11</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2292,20 +2301,20 @@
         <v>11</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>66</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2316,20 +2325,20 @@
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2340,20 +2349,20 @@
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2364,20 +2373,20 @@
         <v>11</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2388,20 +2397,20 @@
         <v>28</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2412,20 +2421,20 @@
         <v>29</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2436,20 +2445,20 @@
         <v>29</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2460,20 +2469,20 @@
         <v>29</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2484,20 +2493,20 @@
         <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2508,20 +2517,20 @@
         <v>27</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2532,20 +2541,20 @@
         <v>27</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2556,20 +2565,20 @@
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2580,20 +2589,20 @@
         <v>27</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2604,20 +2613,20 @@
         <v>27</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2628,20 +2637,20 @@
         <v>27</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2652,20 +2661,20 @@
         <v>5</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2676,20 +2685,20 @@
         <v>5</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2700,20 +2709,20 @@
         <v>5</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2734,18 +2743,18 @@
         <v>19</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2756,18 +2765,18 @@
         <v>19</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="36"/>
       <c r="G28" s="39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2778,18 +2787,18 @@
         <v>19</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="36"/>
       <c r="G29" s="39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2800,18 +2809,18 @@
         <v>19</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="36"/>
       <c r="G30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="29" t="s">
         <v>88</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2822,18 +2831,18 @@
         <v>19</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="36"/>
       <c r="G31" s="39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2844,18 +2853,18 @@
         <v>19</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="36"/>
       <c r="G32" s="39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2869,19 +2878,19 @@
         <v>30</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="E33" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>32</v>
-      </c>
       <c r="H33" s="29" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2895,19 +2904,19 @@
         <v>30</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E34" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>32</v>
-      </c>
       <c r="H34" s="29" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2921,19 +2930,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E35" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>32</v>
-      </c>
       <c r="H35" s="29" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,19 +2956,19 @@
         <v>30</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E36" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>32</v>
-      </c>
       <c r="H36" s="29" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
